--- a/biology/Botanique/Plante_à_fibres/Plante_à_fibres.xlsx
+++ b/biology/Botanique/Plante_à_fibres/Plante_à_fibres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plante_%C3%A0_fibres</t>
+          <t>Plante_à_fibres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes à fibres sont des plantes cultivées pour leurs fibres, utilisées traditionnellement pour fabriquer  du papier[1], des tissus, ou des cordages. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes à fibres sont des plantes cultivées pour leurs fibres, utilisées traditionnellement pour fabriquer  du papier, des tissus, ou des cordages. 
 Les fibres peuvent être améliorées chimiquement, comme dans le cas de la viscose (utilisée pour produire de la rayonne et  de la cellophane). Au cours des dernières années, les chercheurs en science des matériaux s'intéressent au potentiel de ces fibres pour de nouveaux matériaux composites.
-Les cultures de plantes à fibres sont généralement récoltées après une seule saison de croissance, à la différence des arbres, qui sont généralement abattus au bout de plusieurs années pour produire des matières telles que les fibres de pulpe de bois ou de bois-dentelle. Dans des circonstances spécifiques, les fibres provenant de ces plantes peuvent se révéler supérieures aux fibres de pulpe de bois en matière de performances techniques, d'impact environnemental ou de coûts[2].
-Diverses questions se posent au sujet de l'utilisation des plantes à fibres pour fabriquer de la pâte à papier[3].
+Les cultures de plantes à fibres sont généralement récoltées après une seule saison de croissance, à la différence des arbres, qui sont généralement abattus au bout de plusieurs années pour produire des matières telles que les fibres de pulpe de bois ou de bois-dentelle. Dans des circonstances spécifiques, les fibres provenant de ces plantes peuvent se révéler supérieures aux fibres de pulpe de bois en matière de performances techniques, d'impact environnemental ou de coûts.
+Diverses questions se posent au sujet de l'utilisation des plantes à fibres pour fabriquer de la pâte à papier.
 L'une d'elles est la disponibilité saisonnière : alors que les arbres peuvent être abattus en continu, de nombreuses cultures sont récoltées une seule fois dans l'année et apparaissent des contraintes de stockage pendant plusieurs mois et d'insertion dans le flux journalier de plusieurs milliers de tonnes de source de fibres vers les usines de pâte à papier.
 Sur le plan botanique, les fibres d'un grand nombre de ces plantes sont des fibres libériennes ; ces fibres proviennent des tissus du phloème de la plante (dans l'écorce). Les autres fibres végétales proviennent de la bourre des graines, des feuilles ou d'autres parties de la plante.
 </t>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plante_%C3%A0_fibres</t>
+          <t>Plante_à_fibres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,10 +528,12 @@
           <t>Biodiversité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le monde, plusieurs centaines d'espèces végétales sont récoltées dans la nature et utilisées comme source de divers types de fibres finies ou non finies. En ce qui concerne l'importance économique, les plantes sauvages productrices de fibres occupent la deuxième position après celles qui sont comestibles. Dans presque toutes les régions du monde, les agriculteurs utilisent localement divers types de plantes à fibres pour leurs besoins quotidiens, par exemple pour lier leurs produits agricoles, pour l'emballage, et pour préparer de petits objets ménagers[4].
-L'information à leur sujet étant trop parcellaire, il est impossible d'évaluer le nombre d'espèces de plantes utilisées dans le monde pour leurs fibres. Ce nombre est très grand, on l'évalue par exemple à plus de 1000 en Amérique, à plus de 800 dans les Philippines et à plus de 450 en Inde. Les principales familles constituant des ressources génétiques pour les fibres sont les Malvaceae (63 genres), Fabaceae (31), Arecaceae (25), Urticaceae (24), Tiliaceae[5] (21), Sterculiaceae (21) et Asclepiadaceae (15)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le monde, plusieurs centaines d'espèces végétales sont récoltées dans la nature et utilisées comme source de divers types de fibres finies ou non finies. En ce qui concerne l'importance économique, les plantes sauvages productrices de fibres occupent la deuxième position après celles qui sont comestibles. Dans presque toutes les régions du monde, les agriculteurs utilisent localement divers types de plantes à fibres pour leurs besoins quotidiens, par exemple pour lier leurs produits agricoles, pour l'emballage, et pour préparer de petits objets ménagers.
+L'information à leur sujet étant trop parcellaire, il est impossible d'évaluer le nombre d'espèces de plantes utilisées dans le monde pour leurs fibres. Ce nombre est très grand, on l'évalue par exemple à plus de 1000 en Amérique, à plus de 800 dans les Philippines et à plus de 450 en Inde. Les principales familles constituant des ressources génétiques pour les fibres sont les Malvaceae (63 genres), Fabaceae (31), Arecaceae (25), Urticaceae (24), Tiliaceae (21), Sterculiaceae (21) et Asclepiadaceae (15).
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Plante_%C3%A0_fibres</t>
+          <t>Plante_à_fibres</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Plante_%C3%A0_fibres</t>
+          <t>Plante_à_fibres</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Plante_%C3%A0_fibres</t>
+          <t>Plante_à_fibres</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,7 +618,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes à fibres sont utilisées pour produire des textiles pour les vêtements, mais aussi à des fins techniques, telles que les emballages (par exemple des sacs en jute) ou des matériaux isolants (par exemple pour l'isolation thermique),. Dans ce domaine, les fibres végétales concurrencent les fibres animales naturelles et les fibres synthétiques.
 Les fibres végétales peuvent également être utilisées pour fabriquer de la pâte et du papier sans bois. Le chanvre jouait ici un rôle important. Aujourd'hui, cependant, cette demande est principalement satisfaite avec de la pâte de bois. En plus de ces utilisations traditionnelles, les fibres végétales sont également de plus en plus utilisées dans les plastiques renforcés de fibres naturelles.
